--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Fzd8</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.36158187001129</v>
+        <v>2.558821666666667</v>
       </c>
       <c r="N2">
-        <v>6.36158187001129</v>
+        <v>7.676465</v>
       </c>
       <c r="O2">
-        <v>0.7068375544046567</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="P2">
-        <v>0.7068375544046567</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="Q2">
-        <v>53.97946964981426</v>
+        <v>23.43102594291889</v>
       </c>
       <c r="R2">
-        <v>53.97946964981426</v>
+        <v>210.87923348627</v>
       </c>
       <c r="S2">
-        <v>0.6840644287855112</v>
+        <v>0.2090882688410119</v>
       </c>
       <c r="T2">
-        <v>0.6840644287855112</v>
+        <v>0.2090882688410119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.63848020983875</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
-        <v>2.63848020983875</v>
+        <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.2931624455953434</v>
+        <v>0.5439806384912759</v>
       </c>
       <c r="P3">
-        <v>0.2931624455953434</v>
+        <v>0.5439806384912759</v>
       </c>
       <c r="Q3">
-        <v>22.38810492717491</v>
+        <v>59.09887513062357</v>
       </c>
       <c r="R3">
-        <v>22.38810492717491</v>
+        <v>531.889876175612</v>
       </c>
       <c r="S3">
-        <v>0.2837172411650528</v>
+        <v>0.5273726178962982</v>
       </c>
       <c r="T3">
-        <v>0.2837172411650528</v>
+        <v>0.5273726178962982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.28248092494081</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>0.28248092494081</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.03221833004943613</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.03221833004943613</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.36158187001129</v>
+        <v>2.851558333333334</v>
       </c>
       <c r="N4">
-        <v>6.36158187001129</v>
+        <v>8.554675000000001</v>
       </c>
       <c r="O4">
-        <v>0.7068375544046567</v>
+        <v>0.2403464840679487</v>
       </c>
       <c r="P4">
-        <v>0.7068375544046567</v>
+        <v>0.2403464840679487</v>
       </c>
       <c r="Q4">
-        <v>1.797025530727477</v>
+        <v>26.11160369496112</v>
       </c>
       <c r="R4">
-        <v>1.797025530727477</v>
+        <v>235.0044332546501</v>
       </c>
       <c r="S4">
-        <v>0.02277312561914549</v>
+        <v>0.2330085770269889</v>
       </c>
       <c r="T4">
-        <v>0.02277312561914549</v>
+        <v>0.2330085770269889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.288371</v>
+      </c>
+      <c r="H5">
+        <v>0.865113</v>
+      </c>
+      <c r="I5">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J5">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>2.558821666666667</v>
+      </c>
+      <c r="N5">
+        <v>7.676465</v>
+      </c>
+      <c r="O5">
+        <v>0.2156728774407755</v>
+      </c>
+      <c r="P5">
+        <v>0.2156728774407755</v>
+      </c>
+      <c r="Q5">
+        <v>0.7378899628383333</v>
+      </c>
+      <c r="R5">
+        <v>6.641009665545001</v>
+      </c>
+      <c r="S5">
+        <v>0.006584608599763515</v>
+      </c>
+      <c r="T5">
+        <v>0.006584608599763515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.28248092494081</v>
-      </c>
-      <c r="H5">
-        <v>0.28248092494081</v>
-      </c>
-      <c r="I5">
-        <v>0.03221833004943613</v>
-      </c>
-      <c r="J5">
-        <v>0.03221833004943613</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.63848020983875</v>
-      </c>
-      <c r="N5">
-        <v>2.63848020983875</v>
-      </c>
-      <c r="O5">
-        <v>0.2931624455953434</v>
-      </c>
-      <c r="P5">
-        <v>0.2931624455953434</v>
-      </c>
-      <c r="Q5">
-        <v>0.7453203301132726</v>
-      </c>
-      <c r="R5">
-        <v>0.7453203301132726</v>
-      </c>
-      <c r="S5">
-        <v>0.009445204430290635</v>
-      </c>
-      <c r="T5">
-        <v>0.009445204430290635</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.288371</v>
+      </c>
+      <c r="H6">
+        <v>0.865113</v>
+      </c>
+      <c r="I6">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J6">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.453984666666667</v>
+      </c>
+      <c r="N6">
+        <v>19.361954</v>
+      </c>
+      <c r="O6">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="P6">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="Q6">
+        <v>1.861142012311333</v>
+      </c>
+      <c r="R6">
+        <v>16.750278110802</v>
+      </c>
+      <c r="S6">
+        <v>0.01660802059497771</v>
+      </c>
+      <c r="T6">
+        <v>0.01660802059497771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.288371</v>
+      </c>
+      <c r="H7">
+        <v>0.865113</v>
+      </c>
+      <c r="I7">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J7">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.851558333333334</v>
+      </c>
+      <c r="N7">
+        <v>8.554675000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="P7">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="Q7">
+        <v>0.8223067281416667</v>
+      </c>
+      <c r="R7">
+        <v>7.400760553275001</v>
+      </c>
+      <c r="S7">
+        <v>0.007337907040959862</v>
+      </c>
+      <c r="T7">
+        <v>0.007337907040959863</v>
       </c>
     </row>
   </sheetData>
